--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -550,6 +550,15 @@
   </si>
   <si>
     <t xml:space="preserve">Push and pull to a remote branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge remote branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebase git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add remote and working with remote</t>
   </si>
 </sst>
 </file>
@@ -559,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -602,6 +611,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -658,7 +673,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -709,6 +724,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -791,7 +810,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1869,10 +1888,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2064,6 +2083,27 @@
       </c>
       <c r="C16" s="0" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2083,6 +2123,9 @@
     <hyperlink ref="C14" r:id="rId13" display="GIT Resolving Conflict"/>
     <hyperlink ref="C15" r:id="rId14" display="Store uncompleted work on remote repository"/>
     <hyperlink ref="C16" r:id="rId15" display="Push and pull to a remote branch"/>
+    <hyperlink ref="C17" r:id="rId16" display="merge remote branch"/>
+    <hyperlink ref="C18" r:id="rId17" display="rebase git"/>
+    <hyperlink ref="C19" r:id="rId18" display="add remote and working with remote"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="187">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -552,13 +552,37 @@
     <t xml:space="preserve">Push and pull to a remote branch</t>
   </si>
   <si>
+    <t xml:space="preserve">Merge command</t>
+  </si>
+  <si>
     <t xml:space="preserve">merge remote branch</t>
   </si>
   <si>
     <t xml:space="preserve">rebase git</t>
   </si>
   <si>
+    <t xml:space="preserve">Add one or Remote</t>
+  </si>
+  <si>
     <t xml:space="preserve">add remote and working with remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammend command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammend to commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View specific commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific file show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push Specific file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push a specific file to specific remote</t>
   </si>
 </sst>
 </file>
@@ -617,6 +641,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -810,7 +835,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,11 +1033,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3"/>
@@ -1020,11 +1045,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="3"/>
@@ -1032,11 +1057,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
@@ -1044,11 +1069,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="3"/>
@@ -1056,11 +1081,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="3"/>
@@ -1888,16 +1913,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
@@ -2089,21 +2114,66 @@
       <c r="A17" s="11" t="n">
         <v>17</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>176</v>
+      </c>
       <c r="C17" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
+        <v>18</v>
+      </c>
       <c r="B18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>179</v>
+      </c>
       <c r="C19" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2126,6 +2196,9 @@
     <hyperlink ref="C17" r:id="rId16" display="merge remote branch"/>
     <hyperlink ref="C18" r:id="rId17" display="rebase git"/>
     <hyperlink ref="C19" r:id="rId18" display="add remote and working with remote"/>
+    <hyperlink ref="C20" r:id="rId19" display="Ammend to commit"/>
+    <hyperlink ref="C21" r:id="rId20" display="Specific file show"/>
+    <hyperlink ref="C22" r:id="rId21" display="Push a specific file to specific remote"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Git Checklist" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="190">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -583,6 +583,15 @@
   </si>
   <si>
     <t xml:space="preserve">Push a specific file to specific remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git blame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discard changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discard changes</t>
   </si>
 </sst>
 </file>
@@ -834,8 +843,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1105,7 +1114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1151,7 +1160,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -1913,10 +1922,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2174,6 +2183,30 @@
       </c>
       <c r="C22" s="0" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2199,6 +2232,9 @@
     <hyperlink ref="C20" r:id="rId19" display="Ammend to commit"/>
     <hyperlink ref="C21" r:id="rId20" display="Specific file show"/>
     <hyperlink ref="C22" r:id="rId21" display="Push a specific file to specific remote"/>
+    <hyperlink ref="C23" r:id="rId22" display="git blame"/>
+    <hyperlink ref="C24" r:id="rId23" display="SmartGit - Basic Usage"/>
+    <hyperlink ref="C25" r:id="rId24" display="Discard changes"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
